--- a/output/date/2021-12-18/2021-12-18_모니터.xlsx
+++ b/output/date/2021-12-18/2021-12-18_모니터.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 &lt;b&gt;모니터&lt;/b&gt;</t>
+          <t>LG전자 24MK430H 24인치 FHD IPS 광시야각 모니터</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M7 S32AM700</t>
+          <t>삼성전자 스마트모니터 M7 S32AM700</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M7 S43AM700</t>
+          <t>삼성전자 스마트모니터 M7 S43AM700</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M5 S32AM500</t>
+          <t>삼성전자 스마트모니터 M5 S32AM500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M5 S27AM500</t>
+          <t>삼성전자 스마트모니터 M5 S27AM500</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M5 S32AM501</t>
+          <t>삼성전자 스마트모니터 M5 S32AM501</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M7 S32AM701</t>
+          <t>삼성전자 스마트모니터 M7 S32AM701</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 &lt;b&gt;모니터&lt;/b&gt;</t>
+          <t>삼성전자 오디세이 Neo G9 S49AG950 49인치 게이밍 모니터</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>삼성전자 스마트&lt;b&gt;모니터&lt;/b&gt; M5 S27AM501</t>
+          <t>삼성전자 스마트모니터 M5 S27AM501</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
